--- a/2022级/2022级核化工与核燃料工程班.xlsx
+++ b/2022级/2022级核化工与核燃料工程班.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="104">
   <si>
-    <t>2023年核学院2022级核化B类基本素质记实部分评分表</t>
+    <t>2023年核学院+年级+班级名称B类基本素质记实部分评分表</t>
   </si>
   <si>
     <t>序号</t>
@@ -335,9 +335,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -368,8 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,23 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,15 +407,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,14 +440,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,13 +477,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -473,38 +497,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +525,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -537,7 +543,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,19 +603,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,37 +663,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,91 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,20 +743,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,58 +814,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,142 +836,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,13 +1006,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:R1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1597,7 +1609,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1640,13 +1652,13 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1655,10 +1667,10 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1667,10 +1679,10 @@
       <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -1695,7 +1707,7 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1707,7 +1719,7 @@
       <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1719,10 +1731,10 @@
       <c r="M5" s="6">
         <v>2.4</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
         <v>2.4</v>
       </c>
       <c r="P5" s="4">
@@ -1732,7 +1744,7 @@
         <f t="shared" ref="Q4:Q32" si="0">D5+H5+L5+P5</f>
         <v>84</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="4">
@@ -1750,7 +1762,7 @@
       <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1762,7 +1774,7 @@
       <c r="I6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1774,10 +1786,10 @@
       <c r="M6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="4">
@@ -1805,7 +1817,7 @@
       <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1817,7 +1829,7 @@
       <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1829,10 +1841,10 @@
       <c r="M7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="4">
@@ -1842,7 +1854,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="4">
@@ -1860,7 +1872,7 @@
       <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>12.4</v>
       </c>
       <c r="G8" s="4">
@@ -1872,7 +1884,7 @@
       <c r="I8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1884,10 +1896,10 @@
       <c r="M8" s="6">
         <v>6.91</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <v>6.91</v>
       </c>
       <c r="P8" s="4">
@@ -1915,7 +1927,7 @@
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1927,7 +1939,7 @@
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1939,10 +1951,10 @@
       <c r="M9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="P9" s="4">
@@ -1952,7 +1964,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4">
@@ -1970,7 +1982,7 @@
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1982,7 +1994,7 @@
       <c r="I10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1994,10 +2006,10 @@
       <c r="M10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="P10" s="4">
@@ -2025,7 +2037,7 @@
       <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2037,7 +2049,7 @@
       <c r="I11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -2049,10 +2061,10 @@
       <c r="M11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="P11" s="4">
@@ -2080,7 +2092,7 @@
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2092,7 +2104,7 @@
       <c r="I12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2104,10 +2116,10 @@
       <c r="M12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="P12" s="4">
@@ -2117,7 +2129,7 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4">
@@ -2135,7 +2147,7 @@
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2147,7 +2159,7 @@
       <c r="I13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2159,10 +2171,10 @@
       <c r="M13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11" t="s">
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="P13" s="4">
@@ -2190,7 +2202,7 @@
       <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2202,7 +2214,7 @@
       <c r="I14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -2214,10 +2226,10 @@
       <c r="M14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11" t="s">
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="4">
@@ -2245,7 +2257,7 @@
       <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2257,7 +2269,7 @@
       <c r="I15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2266,13 +2278,13 @@
       <c r="L15" s="4">
         <v>18</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11" t="s">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>64</v>
       </c>
       <c r="P15" s="4">
@@ -2282,7 +2294,7 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="4">
@@ -2300,7 +2312,7 @@
       <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2312,7 +2324,7 @@
       <c r="I16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -2324,10 +2336,10 @@
       <c r="M16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11" t="s">
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>66</v>
       </c>
       <c r="P16" s="4">
@@ -2337,7 +2349,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="R16" s="13"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4">
@@ -2355,7 +2367,7 @@
       <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2367,7 +2379,7 @@
       <c r="I17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -2379,10 +2391,10 @@
       <c r="M17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11" t="s">
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
         <v>69</v>
       </c>
       <c r="P17" s="4">
@@ -2392,7 +2404,7 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4">
@@ -2410,7 +2422,7 @@
       <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2422,7 +2434,7 @@
       <c r="I18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -2434,10 +2446,10 @@
       <c r="M18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11" t="s">
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="4">
@@ -2465,7 +2477,7 @@
       <c r="E19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2477,7 +2489,7 @@
       <c r="I19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -2489,10 +2501,10 @@
       <c r="M19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11" t="s">
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>74</v>
       </c>
       <c r="P19" s="4">
@@ -2520,7 +2532,7 @@
       <c r="E20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2532,7 +2544,7 @@
       <c r="I20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -2544,10 +2556,10 @@
       <c r="M20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11" t="s">
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>74</v>
       </c>
       <c r="P20" s="4">
@@ -2557,7 +2569,7 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="R20" s="13"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="4">
@@ -2575,7 +2587,7 @@
       <c r="E21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2587,7 +2599,7 @@
       <c r="I21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2599,10 +2611,10 @@
       <c r="M21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11" t="s">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="P21" s="4">
@@ -2630,7 +2642,7 @@
       <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2642,7 +2654,7 @@
       <c r="I22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -2654,10 +2666,10 @@
       <c r="M22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11" t="s">
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13" t="s">
         <v>81</v>
       </c>
       <c r="P22" s="4">
@@ -2685,7 +2697,7 @@
       <c r="E23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2697,7 +2709,7 @@
       <c r="I23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -2709,10 +2721,10 @@
       <c r="M23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11" t="s">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13" t="s">
         <v>48</v>
       </c>
       <c r="P23" s="4">
@@ -2740,7 +2752,7 @@
       <c r="E24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -2752,7 +2764,7 @@
       <c r="I24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <v>0</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2764,10 +2776,10 @@
       <c r="M24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13" t="s">
         <v>85</v>
       </c>
       <c r="P24" s="4">
@@ -2777,7 +2789,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="R24" s="13"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
@@ -2795,7 +2807,7 @@
       <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2807,7 +2819,7 @@
       <c r="I25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -2819,10 +2831,10 @@
       <c r="M25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11" t="s">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
         <v>89</v>
       </c>
       <c r="P25" s="4">
@@ -2832,7 +2844,7 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R25" s="13"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="4">
@@ -2850,7 +2862,7 @@
       <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2862,7 +2874,7 @@
       <c r="I26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -2871,13 +2883,13 @@
       <c r="L26" s="4">
         <v>14</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="14">
         <v>8</v>
       </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11">
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
         <v>8</v>
       </c>
       <c r="P26" s="4">
@@ -2887,7 +2899,7 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R26" s="13"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="4">
@@ -2905,7 +2917,7 @@
       <c r="E27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2917,7 +2929,7 @@
       <c r="I27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -2929,10 +2941,10 @@
       <c r="M27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11" t="s">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13" t="s">
         <v>94</v>
       </c>
       <c r="P27" s="4">
@@ -2960,7 +2972,7 @@
       <c r="E28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2972,7 +2984,7 @@
       <c r="I28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -2984,10 +2996,10 @@
       <c r="M28" s="6">
         <v>11.52</v>
       </c>
-      <c r="N28" s="11">
-        <v>0</v>
-      </c>
-      <c r="O28" s="11">
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
         <v>11.52</v>
       </c>
       <c r="P28" s="4">
@@ -2997,7 +3009,7 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="R28" s="13"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="4">
@@ -3015,7 +3027,7 @@
       <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="10">
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -3027,7 +3039,7 @@
       <c r="I29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -3039,10 +3051,10 @@
       <c r="M29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11" t="s">
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13" t="s">
         <v>99</v>
       </c>
       <c r="P29" s="4">
@@ -3070,7 +3082,7 @@
       <c r="E30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -3082,7 +3094,7 @@
       <c r="I30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -3091,13 +3103,13 @@
       <c r="L30" s="4">
         <v>14</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="14">
         <v>6.7</v>
       </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
         <v>6.7</v>
       </c>
       <c r="P30" s="4">
@@ -3125,7 +3137,7 @@
       <c r="E31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="10">
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -3137,7 +3149,7 @@
       <c r="I31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -3149,10 +3161,10 @@
       <c r="M31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11" t="s">
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>85</v>
       </c>
       <c r="P31" s="4">
@@ -3180,7 +3192,7 @@
       <c r="E32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -3192,7 +3204,7 @@
       <c r="I32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -3204,10 +3216,10 @@
       <c r="M32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11" t="s">
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="s">
         <v>103</v>
       </c>
       <c r="P32" s="4">
